--- a/data/trans_orig/P22_R4-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P22_R4-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>34283</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23892</v>
+        <v>24639</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45738</v>
+        <v>49088</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.126002023356024</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08780990813713653</v>
+        <v>0.0905577693893002</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1681043745168561</v>
+        <v>0.180416809346091</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -765,19 +765,19 @@
         <v>22610</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14131</v>
+        <v>14360</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33548</v>
+        <v>34332</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0866832679183607</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05417504293768139</v>
+        <v>0.05505398428638158</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1286161484475589</v>
+        <v>0.1316235512511457</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>55</v>
@@ -786,19 +786,19 @@
         <v>56893</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>43749</v>
+        <v>44363</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71620</v>
+        <v>74052</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1067574512762013</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08209335479904793</v>
+        <v>0.08324494006334514</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.134391266526372</v>
+        <v>0.1389541901216419</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>237800</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>226345</v>
+        <v>222995</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>248191</v>
+        <v>247444</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.873997976643976</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8318956254831439</v>
+        <v>0.8195831906539094</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9121900918628637</v>
+        <v>0.9094422306106998</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>225</v>
@@ -836,19 +836,19 @@
         <v>238228</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>227290</v>
+        <v>226506</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>246707</v>
+        <v>246478</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9133167320816393</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8713838515524409</v>
+        <v>0.8683764487488542</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9458249570623186</v>
+        <v>0.9449460157136184</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>460</v>
@@ -857,19 +857,19 @@
         <v>476028</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>461301</v>
+        <v>458869</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>489172</v>
+        <v>488558</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8932425487237987</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8656087334736281</v>
+        <v>0.8610458098783582</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9179066452009523</v>
+        <v>0.9167550599366551</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>48548</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36072</v>
+        <v>35588</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64330</v>
+        <v>62991</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09845904822705662</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07315646101337932</v>
+        <v>0.07217462987129886</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.130467927359179</v>
+        <v>0.1277512477264654</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -982,19 +982,19 @@
         <v>34495</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23808</v>
+        <v>23897</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46362</v>
+        <v>48092</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06844939946938669</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04724316435184894</v>
+        <v>0.04741942683438728</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0919977730417763</v>
+        <v>0.09543104895728079</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>75</v>
@@ -1003,19 +1003,19 @@
         <v>83043</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>65701</v>
+        <v>66121</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>103264</v>
+        <v>102568</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08329057514200623</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06589755825365244</v>
+        <v>0.06631864617518757</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1035723736880487</v>
+        <v>0.1028742116356194</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>444527</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>428745</v>
+        <v>430084</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>457003</v>
+        <v>457487</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9015409517729434</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8695320726408204</v>
+        <v>0.8722487522735347</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9268435389866203</v>
+        <v>0.9278253701287011</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>466</v>
@@ -1053,19 +1053,19 @@
         <v>469454</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>457587</v>
+        <v>455857</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>480141</v>
+        <v>480052</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9315506005306133</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.908002226958224</v>
+        <v>0.9045689510427193</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9527568356481511</v>
+        <v>0.9525805731656127</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>889</v>
@@ -1074,19 +1074,19 @@
         <v>913981</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>893760</v>
+        <v>894456</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>931323</v>
+        <v>930903</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9167094248579938</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8964276263119513</v>
+        <v>0.8971257883643806</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9341024417463475</v>
+        <v>0.9336813538248122</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>19590</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12571</v>
+        <v>12407</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29707</v>
+        <v>29355</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06143883623229267</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03942559563720946</v>
+        <v>0.03891094789781674</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09316899623028668</v>
+        <v>0.09206680112963424</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1199,19 +1199,19 @@
         <v>12391</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6647</v>
+        <v>6670</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20059</v>
+        <v>21280</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03694120039772632</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01981877763312781</v>
+        <v>0.01988734652512022</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05980373159573345</v>
+        <v>0.06344388194790962</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -1220,19 +1220,19 @@
         <v>31980</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21833</v>
+        <v>22497</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44131</v>
+        <v>45416</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04887987300255722</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03337073174907738</v>
+        <v>0.03438611255473478</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06745177315275694</v>
+        <v>0.0694164442929263</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>299256</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>289139</v>
+        <v>289491</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>306275</v>
+        <v>306439</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9385611637677074</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9068310037697134</v>
+        <v>0.9079331988703658</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.960574404362791</v>
+        <v>0.9610890521021833</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>322</v>
@@ -1270,19 +1270,19 @@
         <v>323021</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>315353</v>
+        <v>314132</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>328765</v>
+        <v>328742</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9630587996022737</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9401962684042665</v>
+        <v>0.9365561180520905</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9801812223668722</v>
+        <v>0.9801126534748799</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>613</v>
@@ -1291,19 +1291,19 @@
         <v>622278</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>610127</v>
+        <v>608842</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>632425</v>
+        <v>631761</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9511201269974427</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9325482268472428</v>
+        <v>0.9305835557070735</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9666292682509227</v>
+        <v>0.9656138874452652</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>30025</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20537</v>
+        <v>20374</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>43367</v>
+        <v>42920</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08421884972991195</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05760555775504109</v>
+        <v>0.05714634838737521</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1216406764489787</v>
+        <v>0.1203863373551959</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -1416,19 +1416,19 @@
         <v>28111</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19746</v>
+        <v>18895</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39463</v>
+        <v>39735</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07585167367560126</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05328087277488609</v>
+        <v>0.05098447389717196</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1064821026835053</v>
+        <v>0.1072158417648941</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>57</v>
@@ -1437,19 +1437,19 @@
         <v>58137</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>44241</v>
+        <v>44625</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73709</v>
+        <v>74796</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0799541728233002</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06084328638322713</v>
+        <v>0.06137227060491893</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1013709035021011</v>
+        <v>0.102866071842556</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>326490</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>313148</v>
+        <v>313595</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>335978</v>
+        <v>336141</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.915781150270088</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8783593235510213</v>
+        <v>0.8796136626448045</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9423944422449588</v>
+        <v>0.9428536516126248</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>354</v>
@@ -1487,19 +1487,19 @@
         <v>342498</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>331146</v>
+        <v>330874</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>350863</v>
+        <v>351714</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9241483263243987</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8935178973164947</v>
+        <v>0.8927841582351052</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.946719127225114</v>
+        <v>0.9490155261028279</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>686</v>
@@ -1508,19 +1508,19 @@
         <v>668987</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>653415</v>
+        <v>652328</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>682883</v>
+        <v>682499</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9200458271766998</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8986290964978989</v>
+        <v>0.8971339281574441</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9391567136167729</v>
+        <v>0.9386277293950811</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>42330</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32161</v>
+        <v>31704</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>54734</v>
+        <v>54265</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2082056944563302</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1581891344151647</v>
+        <v>0.1559424626645346</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2692194968070526</v>
+        <v>0.2669099174092798</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>44</v>
@@ -1633,19 +1633,19 @@
         <v>44506</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33788</v>
+        <v>33869</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>57211</v>
+        <v>56353</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2143110332939201</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1627004891695846</v>
+        <v>0.1630928898422527</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2754932379937123</v>
+        <v>0.2713589756437267</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>85</v>
@@ -1654,19 +1654,19 @@
         <v>86835</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>70889</v>
+        <v>71175</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>105202</v>
+        <v>104464</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2112907489700217</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1724903700073235</v>
+        <v>0.1731845224355232</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2559798420027302</v>
+        <v>0.2541852094852697</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>160978</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>148574</v>
+        <v>149043</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>171147</v>
+        <v>171604</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7917943055436698</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7307805031929473</v>
+        <v>0.7330900825907201</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8418108655848353</v>
+        <v>0.8440575373354654</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>154</v>
@@ -1704,19 +1704,19 @@
         <v>163162</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>150457</v>
+        <v>151315</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>173880</v>
+        <v>173799</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7856889667060799</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7245067620062877</v>
+        <v>0.7286410243562732</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8372995108304155</v>
+        <v>0.8369071101577474</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>319</v>
@@ -1725,19 +1725,19 @@
         <v>324141</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>305774</v>
+        <v>306512</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>340087</v>
+        <v>339801</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7887092510299784</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7440201579972697</v>
+        <v>0.7458147905147302</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8275096299926762</v>
+        <v>0.8268154775644767</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>18979</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11859</v>
+        <v>11747</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29510</v>
+        <v>29307</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07008103760470341</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04379135623615526</v>
+        <v>0.04337648651525467</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1089683919613672</v>
+        <v>0.108220641163005</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -1850,19 +1850,19 @@
         <v>12137</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6810</v>
+        <v>6950</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20663</v>
+        <v>20379</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04363663562924762</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02448541299396568</v>
+        <v>0.02498647234936288</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07428771494697203</v>
+        <v>0.07326806477473206</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>30</v>
@@ -1871,19 +1871,19 @@
         <v>31116</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20990</v>
+        <v>21587</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>42928</v>
+        <v>43981</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05668221313002139</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03823567887564975</v>
+        <v>0.03932469270744628</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07819899840760448</v>
+        <v>0.0801175974837039</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>251832</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>241301</v>
+        <v>241504</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>258952</v>
+        <v>259064</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9299189623952966</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8910316080386335</v>
+        <v>0.8917793588369952</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9562086437638448</v>
+        <v>0.9566235134847461</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>258</v>
@@ -1921,19 +1921,19 @@
         <v>266007</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>257481</v>
+        <v>257765</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>271334</v>
+        <v>271194</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9563633643707524</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9257122850530281</v>
+        <v>0.9267319352252663</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9755145870060343</v>
+        <v>0.9750135276506371</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>506</v>
@@ -1942,19 +1942,19 @@
         <v>517839</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>506027</v>
+        <v>504974</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>527965</v>
+        <v>527368</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9433177868699786</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9218010015923955</v>
+        <v>0.9198824025162962</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9617643211243504</v>
+        <v>0.9606753072925538</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>40732</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30779</v>
+        <v>29117</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>56239</v>
+        <v>54839</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06633640393020571</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05012674263971288</v>
+        <v>0.04741955359211062</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09159115877097632</v>
+        <v>0.08931062971021107</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>50</v>
@@ -2067,19 +2067,19 @@
         <v>53319</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40498</v>
+        <v>40395</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>70150</v>
+        <v>68756</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08369874111484232</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0635722228944018</v>
+        <v>0.06341073677538904</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1101194150460316</v>
+        <v>0.1079313497121128</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>90</v>
@@ -2088,19 +2088,19 @@
         <v>94051</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>77091</v>
+        <v>75705</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>115294</v>
+        <v>112978</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07517726911849101</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06162004583845815</v>
+        <v>0.06051283428848667</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0921571204897655</v>
+        <v>0.09030548733921094</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>573292</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>557785</v>
+        <v>559185</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>583245</v>
+        <v>584907</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9336635960697943</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9084088412290238</v>
+        <v>0.9106893702897885</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9498732573602872</v>
+        <v>0.9525804464078892</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>570</v>
@@ -2138,19 +2138,19 @@
         <v>583720</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>566889</v>
+        <v>568283</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>596541</v>
+        <v>596644</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9163012588851577</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8898805849539693</v>
+        <v>0.8920686502878874</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9364277771055983</v>
+        <v>0.9365892632246111</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1127</v>
@@ -2159,19 +2159,19 @@
         <v>1157012</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1135769</v>
+        <v>1138085</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1173972</v>
+        <v>1175358</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.924822730881509</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9078428795102342</v>
+        <v>0.9096945126607888</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9383799541615417</v>
+        <v>0.9394871657115129</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>111907</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>93603</v>
+        <v>94453</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>133528</v>
+        <v>134363</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1509253092848565</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1262390754004888</v>
+        <v>0.1273853911287951</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1800853410420621</v>
+        <v>0.1812110904637095</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>108</v>
@@ -2284,19 +2284,19 @@
         <v>114103</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>97089</v>
+        <v>95973</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>135821</v>
+        <v>137068</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1456307931859963</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1239155522646805</v>
+        <v>0.1224908047664899</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1733495308717196</v>
+        <v>0.1749409216519996</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>223</v>
@@ -2305,19 +2305,19 @@
         <v>226010</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>200315</v>
+        <v>200506</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>256392</v>
+        <v>255185</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.148205075709565</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1313555204174262</v>
+        <v>0.1314808925259343</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1681276811920556</v>
+        <v>0.167336033373739</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>629566</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>607945</v>
+        <v>607110</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>647870</v>
+        <v>647020</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8490746907151435</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8199146589579379</v>
+        <v>0.8187889095362905</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8737609245995112</v>
+        <v>0.8726146088712049</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>637</v>
@@ -2355,19 +2355,19 @@
         <v>669408</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>647690</v>
+        <v>646443</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>686422</v>
+        <v>687538</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8543692068140036</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8266504691282801</v>
+        <v>0.8250590783479999</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8760844477353196</v>
+        <v>0.87750919523351</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1256</v>
@@ -2376,19 +2376,19 @@
         <v>1298974</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1268592</v>
+        <v>1269799</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1324669</v>
+        <v>1324478</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.851794924290435</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8318723188079445</v>
+        <v>0.832663966626261</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8686444795825738</v>
+        <v>0.8685191074740658</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>346393</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>311921</v>
+        <v>312903</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>382820</v>
+        <v>381302</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1059262875168363</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09538478964699144</v>
+        <v>0.09568501124098282</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.117065587876887</v>
+        <v>0.1166013175410323</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>309</v>
@@ -2501,19 +2501,19 @@
         <v>321673</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>289004</v>
+        <v>287214</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>358629</v>
+        <v>355772</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09524916965129535</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08557577190640722</v>
+        <v>0.08504588865661868</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1061921371903994</v>
+        <v>0.1053461632205379</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>647</v>
@@ -2522,19 +2522,19 @@
         <v>668066</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>621720</v>
+        <v>617717</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>721223</v>
+        <v>720434</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1005017672187822</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09352962841037678</v>
+        <v>0.09292737848460646</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1084985890791435</v>
+        <v>0.1083799332767277</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2923742</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2887315</v>
+        <v>2888833</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2958214</v>
+        <v>2957232</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8940737124831637</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.882934412123113</v>
+        <v>0.8833986824589677</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9046152103530085</v>
+        <v>0.9043149887590172</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2986</v>
@@ -2572,19 +2572,19 @@
         <v>3055497</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3018541</v>
+        <v>3021398</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3088166</v>
+        <v>3089956</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9047508303487046</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8938078628096006</v>
+        <v>0.8946538367794621</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9144242280935928</v>
+        <v>0.9149541113433814</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5856</v>
@@ -2593,19 +2593,19 @@
         <v>5979238</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5926081</v>
+        <v>5926870</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6025584</v>
+        <v>6029587</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8994982327812178</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8915014109208563</v>
+        <v>0.8916200667232724</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9064703715896233</v>
+        <v>0.9070726215153936</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>40533</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29033</v>
+        <v>28967</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55210</v>
+        <v>53979</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1375219563503879</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09850564735260364</v>
+        <v>0.09828072665939562</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1873173645144181</v>
+        <v>0.1831413688915635</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -2962,19 +2962,19 @@
         <v>25569</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16711</v>
+        <v>17664</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37721</v>
+        <v>38383</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08901506718167994</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05817791590070837</v>
+        <v>0.06149300320486128</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1313199075774675</v>
+        <v>0.1336261935023099</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>64</v>
@@ -2983,19 +2983,19 @@
         <v>66102</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51842</v>
+        <v>51831</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83082</v>
+        <v>83879</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1135807748213173</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08907790575206703</v>
+        <v>0.08905949513241249</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1427568888797568</v>
+        <v>0.1441253658960127</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>254205</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>239528</v>
+        <v>240759</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>265705</v>
+        <v>265771</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8624780436496121</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.812682635485582</v>
+        <v>0.8168586311084368</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9014943526473964</v>
+        <v>0.9017192733406044</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>232</v>
@@ -3033,19 +3033,19 @@
         <v>261676</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>249524</v>
+        <v>248862</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>270534</v>
+        <v>269581</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.91098493281832</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8686800924225321</v>
+        <v>0.8663738064976899</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9418220840992916</v>
+        <v>0.9385069967951387</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>474</v>
@@ -3054,19 +3054,19 @@
         <v>515881</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>498901</v>
+        <v>498104</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>530141</v>
+        <v>530152</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8864192251786827</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8572431111202433</v>
+        <v>0.8558746341039872</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.910922094247933</v>
+        <v>0.9109405048675875</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>54615</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40520</v>
+        <v>39740</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72758</v>
+        <v>71817</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1082458414886089</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08030915536001902</v>
+        <v>0.07876463851601478</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.144205448795551</v>
+        <v>0.1423403645308768</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -3179,19 +3179,19 @@
         <v>52626</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39287</v>
+        <v>39071</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70030</v>
+        <v>68324</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1004764170122771</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07500961810378202</v>
+        <v>0.07459699649055229</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1337046219149959</v>
+        <v>0.1304477780639286</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -3200,19 +3200,19 @@
         <v>107241</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>87112</v>
+        <v>87413</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>132258</v>
+        <v>131245</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1042885242566703</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08471404718050107</v>
+        <v>0.08500617959249418</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1286169576203345</v>
+        <v>0.1276313572444837</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>449931</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>431788</v>
+        <v>432729</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>464026</v>
+        <v>464806</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8917541585113911</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8557945512044488</v>
+        <v>0.8576596354691232</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9196908446399809</v>
+        <v>0.9212353614839852</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>437</v>
@@ -3250,19 +3250,19 @@
         <v>471139</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>453735</v>
+        <v>455441</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>484478</v>
+        <v>484694</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8995235829877228</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8662953780850041</v>
+        <v>0.8695522219360715</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9249903818962181</v>
+        <v>0.9254030035094479</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>864</v>
@@ -3271,19 +3271,19 @@
         <v>921070</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>896053</v>
+        <v>897066</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>941199</v>
+        <v>940898</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8957114757433297</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8713830423796656</v>
+        <v>0.8723686427555162</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.915285952819499</v>
+        <v>0.9149938204075058</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>24310</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16400</v>
+        <v>15690</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36646</v>
+        <v>36259</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07502021049935857</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05061112375852712</v>
+        <v>0.04842000497378462</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.113089951483595</v>
+        <v>0.111894879692908</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -3396,19 +3396,19 @@
         <v>20319</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12711</v>
+        <v>12086</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33704</v>
+        <v>31105</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05958332217642778</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03727276020895397</v>
+        <v>0.03543934328963001</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09883311646542206</v>
+        <v>0.09121188690252195</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -3417,19 +3417,19 @@
         <v>44629</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31432</v>
+        <v>32223</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59915</v>
+        <v>59541</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06710477396960188</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04726220421764998</v>
+        <v>0.04845112524549301</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09008847484684447</v>
+        <v>0.08952585530082802</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>299736</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>287400</v>
+        <v>287787</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>307646</v>
+        <v>308356</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9249797895006414</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.886910048516405</v>
+        <v>0.888105120307092</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9493888762414729</v>
+        <v>0.9515799950262154</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>300</v>
@@ -3467,19 +3467,19 @@
         <v>320701</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>307316</v>
+        <v>309915</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>328309</v>
+        <v>328934</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9404166778235722</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9011668835345776</v>
+        <v>0.908788113097478</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.962727239791046</v>
+        <v>0.9645606567103699</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>597</v>
@@ -3488,19 +3488,19 @@
         <v>620437</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>605151</v>
+        <v>605525</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>633634</v>
+        <v>632843</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9328952260303981</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9099115251531555</v>
+        <v>0.910474144699172</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.95273779578235</v>
+        <v>0.951548874754507</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>36540</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25236</v>
+        <v>25967</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50288</v>
+        <v>49896</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09770641537626962</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0674799060811707</v>
+        <v>0.06943282086073529</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1344655426100249</v>
+        <v>0.1334183960533445</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -3613,19 +3613,19 @@
         <v>33401</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24281</v>
+        <v>22571</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>46126</v>
+        <v>45571</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08587514222360679</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0624262801412276</v>
+        <v>0.05803097710722294</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1185918796918617</v>
+        <v>0.1171637739744036</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>65</v>
@@ -3634,19 +3634,19 @@
         <v>69942</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55168</v>
+        <v>54031</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>88464</v>
+        <v>87242</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09167471297651723</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07231059758717601</v>
+        <v>0.07081985162390723</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1159524593238065</v>
+        <v>0.1143514301095167</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>337442</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>323694</v>
+        <v>324086</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>348746</v>
+        <v>348015</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9022935846237303</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8655344573899753</v>
+        <v>0.8665816039466554</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9325200939188295</v>
+        <v>0.9305671791392647</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>338</v>
@@ -3684,19 +3684,19 @@
         <v>355550</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>342825</v>
+        <v>343380</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>364670</v>
+        <v>366380</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9141248577763932</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.881408120308138</v>
+        <v>0.882836226025597</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9375737198587722</v>
+        <v>0.9419690228927771</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>650</v>
@@ -3705,19 +3705,19 @@
         <v>692991</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>674469</v>
+        <v>675691</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>707765</v>
+        <v>708902</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9083252870234828</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8840475406761935</v>
+        <v>0.8856485698904832</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.927689402412824</v>
+        <v>0.9291801483760929</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>22613</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15033</v>
+        <v>14665</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32974</v>
+        <v>33413</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1063570120686948</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07070600238896409</v>
+        <v>0.06897462706557508</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1550845049715536</v>
+        <v>0.1571490791637772</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -3830,19 +3830,19 @@
         <v>21041</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13423</v>
+        <v>13733</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30687</v>
+        <v>30609</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09581677959139692</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06112853962753077</v>
+        <v>0.06254047942958292</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1397441105787975</v>
+        <v>0.1393892175330057</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>43</v>
@@ -3851,19 +3851,19 @@
         <v>43654</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>32113</v>
+        <v>32027</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58157</v>
+        <v>57257</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1010018714327681</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07430058090440178</v>
+        <v>0.07410164712764648</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1345585038094255</v>
+        <v>0.1324742169893736</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>190005</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>179644</v>
+        <v>179205</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>197585</v>
+        <v>197953</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8936429879313053</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8449154950284464</v>
+        <v>0.8428509208362227</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9292939976110359</v>
+        <v>0.9310253729344248</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>191</v>
@@ -3901,19 +3901,19 @@
         <v>198550</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>188904</v>
+        <v>188982</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206168</v>
+        <v>205858</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9041832204086031</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8602558894212022</v>
+        <v>0.8606107824669945</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.938871460372469</v>
+        <v>0.9374595205704171</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>365</v>
@@ -3922,19 +3922,19 @@
         <v>388555</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>374052</v>
+        <v>374952</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>400096</v>
+        <v>400182</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8989981285672319</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8654414961905744</v>
+        <v>0.8675257830106262</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9256994190955981</v>
+        <v>0.9258983528723534</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>22248</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13940</v>
+        <v>14182</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34181</v>
+        <v>34189</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08120306769389762</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05087988562142493</v>
+        <v>0.05176358282485118</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.12475828502496</v>
+        <v>0.1247846408313493</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -4047,19 +4047,19 @@
         <v>9756</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4710</v>
+        <v>4844</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17598</v>
+        <v>18420</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03483810201202747</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01681943928947964</v>
+        <v>0.01729761358650557</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06284198677715153</v>
+        <v>0.06577760359988465</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>28</v>
@@ -4068,19 +4068,19 @@
         <v>32004</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22601</v>
+        <v>20893</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>45429</v>
+        <v>45802</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05776742446352199</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04079526568465982</v>
+        <v>0.03771135170532548</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08200022291986182</v>
+        <v>0.08267313990473903</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>251733</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>239800</v>
+        <v>239792</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260041</v>
+        <v>259799</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9187969323061024</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.87524171497504</v>
+        <v>0.8752153591686506</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9491201143785749</v>
+        <v>0.9482364171751488</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>260</v>
@@ -4118,19 +4118,19 @@
         <v>270275</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>262433</v>
+        <v>261611</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>275321</v>
+        <v>275187</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9651618979879725</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9371580132228486</v>
+        <v>0.9342223964001156</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9831805607105205</v>
+        <v>0.9827023864134946</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>502</v>
@@ -4139,19 +4139,19 @@
         <v>522008</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>508583</v>
+        <v>508210</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>531411</v>
+        <v>533119</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.942232575536478</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9179997770801381</v>
+        <v>0.917326860095261</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9592047343153401</v>
+        <v>0.9622886482946744</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>49072</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36386</v>
+        <v>35834</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>65749</v>
+        <v>64425</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07403863437236433</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05489890123432852</v>
+        <v>0.05406622747738315</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09920120212666976</v>
+        <v>0.09720353925050307</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>38</v>
@@ -4264,19 +4264,19 @@
         <v>44011</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31679</v>
+        <v>31824</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>58221</v>
+        <v>59712</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06342925741212874</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0456564577797415</v>
+        <v>0.04586613504595776</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0839100058875983</v>
+        <v>0.08605848839713712</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>83</v>
@@ -4285,19 +4285,19 @@
         <v>93082</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>73817</v>
+        <v>73751</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>112081</v>
+        <v>115151</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06861247692373555</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05441164264587487</v>
+        <v>0.05436270812039375</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08261683180578831</v>
+        <v>0.08487972972896272</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>613716</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>597039</v>
+        <v>598363</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>626402</v>
+        <v>626954</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9259613656276356</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9007987978733303</v>
+        <v>0.9027964607494969</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9451010987656715</v>
+        <v>0.9459337725226169</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>598</v>
@@ -4335,19 +4335,19 @@
         <v>649842</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>635632</v>
+        <v>634141</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>662174</v>
+        <v>662029</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9365707425878712</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9160899941124016</v>
+        <v>0.9139415116028627</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9543435422202584</v>
+        <v>0.9541338649540422</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1171</v>
@@ -4356,19 +4356,19 @@
         <v>1263559</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1244560</v>
+        <v>1241490</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1282824</v>
+        <v>1282890</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9313875230762645</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9173831681942117</v>
+        <v>0.9151202702710378</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9455883573541252</v>
+        <v>0.9456372918796062</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>66720</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>51998</v>
+        <v>50986</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>86454</v>
+        <v>85405</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08563707998652914</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06674190140114861</v>
+        <v>0.06544234360405539</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1109662605152957</v>
+        <v>0.1096203924651574</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>57</v>
@@ -4481,19 +4481,19 @@
         <v>65258</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>49734</v>
+        <v>50725</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>82130</v>
+        <v>84424</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07921025303653079</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06036759353763911</v>
+        <v>0.06157005606057946</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09969000596205262</v>
+        <v>0.1024750958995745</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>115</v>
@@ -4502,19 +4502,19 @@
         <v>131977</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>109618</v>
+        <v>108280</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>157125</v>
+        <v>158400</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08233394734103158</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06838485001052103</v>
+        <v>0.06755023813819183</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09802226972957415</v>
+        <v>0.09881799407764229</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>712378</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>692644</v>
+        <v>693693</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>727100</v>
+        <v>728112</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9143629200134709</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8890337394847045</v>
+        <v>0.8903796075348427</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9332580985988516</v>
+        <v>0.9345576563959449</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>700</v>
@@ -4552,19 +4552,19 @@
         <v>758595</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>741723</v>
+        <v>739429</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>774119</v>
+        <v>773128</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9207897469634693</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9003099940379473</v>
+        <v>0.8975249041004254</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9396324064623608</v>
+        <v>0.9384299439394205</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1359</v>
@@ -4573,19 +4573,19 @@
         <v>1470974</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1445826</v>
+        <v>1444551</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1493333</v>
+        <v>1494671</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9176660526589684</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9019777302704257</v>
+        <v>0.9011820059223571</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9316151499894783</v>
+        <v>0.9324497618618076</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>316652</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>281815</v>
+        <v>283487</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>353790</v>
+        <v>354741</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09243148378198994</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08226267404318849</v>
+        <v>0.08275056278488034</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1032721611484851</v>
+        <v>0.103549767822378</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>242</v>
@@ -4698,19 +4698,19 @@
         <v>271980</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>239730</v>
+        <v>237580</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>305989</v>
+        <v>305581</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07643516244419479</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06737197292218709</v>
+        <v>0.06676762116171463</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0859927318395657</v>
+        <v>0.08587802526354722</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>524</v>
@@ -4719,19 +4719,19 @@
         <v>588632</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>539266</v>
+        <v>545083</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>638505</v>
+        <v>643354</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08428157162442802</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07721331754559801</v>
+        <v>0.07804620338960376</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09142253765261725</v>
+        <v>0.09211685255418939</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3109146</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3072008</v>
+        <v>3071057</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3143983</v>
+        <v>3142311</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.90756851621801</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8967278388515157</v>
+        <v>0.896450232177622</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9177373259568122</v>
+        <v>0.9172494372151195</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3056</v>
@@ -4769,19 +4769,19 @@
         <v>3286329</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3252320</v>
+        <v>3252728</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3318579</v>
+        <v>3320729</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9235648375558052</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9140072681604342</v>
+        <v>0.9141219747364527</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9326280270778129</v>
+        <v>0.9332323788382852</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5982</v>
@@ -4790,19 +4790,19 @@
         <v>6395475</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6345602</v>
+        <v>6340753</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6444841</v>
+        <v>6439024</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9157184283755719</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9085774623473828</v>
+        <v>0.9078831474458107</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9227866824544024</v>
+        <v>0.9219537966103962</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>25227</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17211</v>
+        <v>16389</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37196</v>
+        <v>36514</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08587626156553678</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05858785694585316</v>
+        <v>0.05579032125578704</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1266210472846317</v>
+        <v>0.1242979843164703</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -5159,19 +5159,19 @@
         <v>24001</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15877</v>
+        <v>15086</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35730</v>
+        <v>35890</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0834184408710705</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05518058502191447</v>
+        <v>0.05243129833630128</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1241809063310409</v>
+        <v>0.1247361904379479</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -5180,19 +5180,19 @@
         <v>49229</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36811</v>
+        <v>36969</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>67481</v>
+        <v>64966</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08466010926704616</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06330495274840005</v>
+        <v>0.06357633355854082</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.116049509508174</v>
+        <v>0.1117237986906281</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>268534</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>256565</v>
+        <v>257247</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>276550</v>
+        <v>277372</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9141237384344633</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8733789527153683</v>
+        <v>0.8757020156835307</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9414121430541469</v>
+        <v>0.944209678744213</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>255</v>
@@ -5230,19 +5230,19 @@
         <v>263723</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>251994</v>
+        <v>251834</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>271847</v>
+        <v>272638</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9165815591289295</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8758190936689593</v>
+        <v>0.8752638095620521</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9448194149780856</v>
+        <v>0.9475687016636988</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>497</v>
@@ -5251,19 +5251,19 @@
         <v>532256</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>514004</v>
+        <v>516519</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>544674</v>
+        <v>544516</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9153398907329539</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8839504904918264</v>
+        <v>0.8882762013093723</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9366950472516001</v>
+        <v>0.9364236664414592</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>13297</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7158</v>
+        <v>7063</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22226</v>
+        <v>23461</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02645767445674613</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01424215120976121</v>
+        <v>0.01405429194665074</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04422464351726026</v>
+        <v>0.04668158171807488</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -5376,19 +5376,19 @@
         <v>24822</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16165</v>
+        <v>16553</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35659</v>
+        <v>36881</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04745307663615615</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03090316386816724</v>
+        <v>0.0316448695252967</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06817061317155339</v>
+        <v>0.07050688988659816</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -5397,19 +5397,19 @@
         <v>38119</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27258</v>
+        <v>27215</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>51621</v>
+        <v>51893</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03716528301123077</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02657582735967405</v>
+        <v>0.02653406166919969</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05033007333343417</v>
+        <v>0.05059491199475288</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>489278</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>480349</v>
+        <v>479114</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>495417</v>
+        <v>495512</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9735423255432539</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9557753564827397</v>
+        <v>0.9533184182819251</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9857578487902389</v>
+        <v>0.9859457080533492</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>461</v>
@@ -5447,19 +5447,19 @@
         <v>498262</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>487425</v>
+        <v>486203</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>506919</v>
+        <v>506531</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9525469233638438</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9318293868284466</v>
+        <v>0.9294931101134023</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9690968361318328</v>
+        <v>0.9683551304747033</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>924</v>
@@ -5468,19 +5468,19 @@
         <v>987540</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>974038</v>
+        <v>973766</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>998401</v>
+        <v>998444</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9628347169887692</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9496699266665661</v>
+        <v>0.9494050880052476</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9734241726403263</v>
+        <v>0.9734659383308004</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>26248</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17628</v>
+        <v>17989</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37287</v>
+        <v>37037</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08288814855887171</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05566721000438907</v>
+        <v>0.05680697109969001</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1177491575805098</v>
+        <v>0.116959621221857</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -5593,19 +5593,19 @@
         <v>13873</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8299</v>
+        <v>7320</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22598</v>
+        <v>21715</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04125089542375565</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02467595707545424</v>
+        <v>0.02176574627671399</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06719344951660573</v>
+        <v>0.06456837321165584</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -5614,19 +5614,19 @@
         <v>40121</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29428</v>
+        <v>29761</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53448</v>
+        <v>52871</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06144328040455042</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04506723187777424</v>
+        <v>0.0455776305350175</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08185313623968345</v>
+        <v>0.08096949258368237</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>290419</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>279380</v>
+        <v>279630</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>299039</v>
+        <v>298678</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9171118514411283</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8822508424194901</v>
+        <v>0.883040378778143</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.944332789995611</v>
+        <v>0.94319302890031</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>317</v>
@@ -5664,19 +5664,19 @@
         <v>322436</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>313711</v>
+        <v>314594</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>328010</v>
+        <v>328989</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9587491045762444</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9328065504833941</v>
+        <v>0.9354316267883441</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9753240429245457</v>
+        <v>0.978234253723286</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>623</v>
@@ -5685,19 +5685,19 @@
         <v>612855</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>599528</v>
+        <v>600105</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>623548</v>
+        <v>623215</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9385567195954496</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9181468637603164</v>
+        <v>0.9190305074163176</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9549327681222257</v>
+        <v>0.9544223694649825</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>44837</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33916</v>
+        <v>32157</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58781</v>
+        <v>59610</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1211937741235708</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09167471366099561</v>
+        <v>0.08691897765104775</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1588818326208673</v>
+        <v>0.1611238461747421</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -5810,19 +5810,19 @@
         <v>36343</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26145</v>
+        <v>25427</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51993</v>
+        <v>50254</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09384207745248482</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06750988428836069</v>
+        <v>0.06565609405551018</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1342499804659223</v>
+        <v>0.1297608148336467</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>72</v>
@@ -5831,19 +5831,19 @@
         <v>81181</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>64395</v>
+        <v>64643</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>100029</v>
+        <v>100106</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1072051453424105</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08503871750374428</v>
+        <v>0.08536643534656391</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1320957234526395</v>
+        <v>0.1321974676125692</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>325127</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>311183</v>
+        <v>310354</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>336048</v>
+        <v>337807</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8788062258764292</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8411181673791327</v>
+        <v>0.8388761538252579</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9083252863390043</v>
+        <v>0.9130810223489523</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>327</v>
@@ -5881,19 +5881,19 @@
         <v>350940</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>335290</v>
+        <v>337029</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>361138</v>
+        <v>361856</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9061579225475151</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8657500195340775</v>
+        <v>0.8702391851663532</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9324901157116392</v>
+        <v>0.9343439059444897</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>640</v>
@@ -5902,19 +5902,19 @@
         <v>676066</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>657218</v>
+        <v>657141</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>692852</v>
+        <v>692604</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8927948546575896</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8679042765473606</v>
+        <v>0.8678025323874308</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9149612824962556</v>
+        <v>0.9146335646534359</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>11127</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5633</v>
+        <v>5506</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20639</v>
+        <v>21185</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0526808086223239</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0266680960353034</v>
+        <v>0.02606647478961147</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09771168951299208</v>
+        <v>0.1002990111032883</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -6027,19 +6027,19 @@
         <v>3617</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9072</v>
+        <v>9188</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0165462667678606</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00407595072985213</v>
+        <v>0.0041196441868199</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0415039704210021</v>
+        <v>0.04203238973271041</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -6048,19 +6048,19 @@
         <v>14744</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7961</v>
+        <v>8288</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24323</v>
+        <v>24456</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03430390281242764</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01852180111247776</v>
+        <v>0.01928239487147966</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05659086369474739</v>
+        <v>0.05690023851626524</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>200094</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>190582</v>
+        <v>190036</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>205588</v>
+        <v>205715</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9473191913776761</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9022883104870075</v>
+        <v>0.8997009888967115</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9733319039646963</v>
+        <v>0.9739335252103885</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>219</v>
@@ -6098,19 +6098,19 @@
         <v>214970</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>209515</v>
+        <v>209399</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>217696</v>
+        <v>217686</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9834537332321394</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9584960295789979</v>
+        <v>0.9579676102672896</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9959240492701479</v>
+        <v>0.9958803558131801</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>421</v>
@@ -6119,19 +6119,19 @@
         <v>415064</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>405485</v>
+        <v>405352</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>421847</v>
+        <v>421520</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9656960971875723</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9434091363052525</v>
+        <v>0.9430997614837348</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9814781988875222</v>
+        <v>0.9807176051285202</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>18772</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11284</v>
+        <v>11720</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28999</v>
+        <v>30446</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07134293691614067</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04288633369370991</v>
+        <v>0.04454101876885724</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1102108881075099</v>
+        <v>0.1157099855638741</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -6244,19 +6244,19 @@
         <v>9171</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4675</v>
+        <v>4189</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17012</v>
+        <v>17150</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03357769027044199</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01711584968515543</v>
+        <v>0.01533815697046782</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06228711536361874</v>
+        <v>0.0627939852730787</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -6265,19 +6265,19 @@
         <v>27943</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18843</v>
+        <v>18819</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>40413</v>
+        <v>40276</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05210846386226687</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03513953081353208</v>
+        <v>0.03509446885899359</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0753643379035616</v>
+        <v>0.07510802888210957</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>244351</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>234124</v>
+        <v>232677</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>251839</v>
+        <v>251403</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9286570630838593</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.88978911189249</v>
+        <v>0.8842900144361259</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.95711366630629</v>
+        <v>0.9554589812311429</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>254</v>
@@ -6315,19 +6315,19 @@
         <v>263944</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>256103</v>
+        <v>255965</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>268440</v>
+        <v>268926</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.966422309729558</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.937712884636382</v>
+        <v>0.9372060147269211</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9828841503148448</v>
+        <v>0.9846618430295319</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>496</v>
@@ -6336,19 +6336,19 @@
         <v>508295</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>495825</v>
+        <v>495962</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>517395</v>
+        <v>517419</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9478915361377331</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9246356620964384</v>
+        <v>0.924891971117891</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.964860469186468</v>
+        <v>0.9649055311410066</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>70175</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>55474</v>
+        <v>55094</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>88097</v>
+        <v>89438</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.107376415466936</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08488174941437063</v>
+        <v>0.08430010123777944</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1347996551669481</v>
+        <v>0.1368515819215048</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>65</v>
@@ -6461,19 +6461,19 @@
         <v>67794</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>52790</v>
+        <v>53730</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>83386</v>
+        <v>86734</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09875722562325269</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07690051154648511</v>
+        <v>0.07827081716655789</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1214704773592426</v>
+        <v>0.1263481808272276</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>125</v>
@@ -6482,19 +6482,19 @@
         <v>137969</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>115986</v>
+        <v>115912</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>162394</v>
+        <v>159997</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1029609318114485</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0865561324457423</v>
+        <v>0.08650096443126486</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1211882387568312</v>
+        <v>0.1193996725531706</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>583368</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>565446</v>
+        <v>564105</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>598069</v>
+        <v>598449</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.892623584533064</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8652003448330515</v>
+        <v>0.8631484180784951</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9151182505856291</v>
+        <v>0.9156998987622206</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>577</v>
@@ -6532,19 +6532,19 @@
         <v>618674</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>603082</v>
+        <v>599734</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>633678</v>
+        <v>632738</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9012427743767473</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8785295226407573</v>
+        <v>0.8736518191727723</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9230994884535149</v>
+        <v>0.9217291828334421</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1095</v>
@@ -6553,19 +6553,19 @@
         <v>1202042</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1177617</v>
+        <v>1180014</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1224025</v>
+        <v>1224099</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8970390681885515</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8788117612431688</v>
+        <v>0.8806003274468293</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9134438675542577</v>
+        <v>0.9134990355687349</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>68893</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>55521</v>
+        <v>53499</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>88412</v>
+        <v>86321</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08848460387594834</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07131059814731815</v>
+        <v>0.06871321565218451</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1135553191936975</v>
+        <v>0.1108687758056834</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>84</v>
@@ -6678,19 +6678,19 @@
         <v>94544</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>75776</v>
+        <v>76346</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>114997</v>
+        <v>115232</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.114437437058435</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09172055739476014</v>
+        <v>0.09240981770329161</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.139194005257097</v>
+        <v>0.1394775523132989</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>148</v>
@@ -6699,19 +6699,19 @@
         <v>163437</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>139764</v>
+        <v>141058</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>189595</v>
+        <v>191807</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1018457968342397</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08709380678834105</v>
+        <v>0.08790016500781027</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1181464211910186</v>
+        <v>0.119524677984876</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>709690</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>690171</v>
+        <v>692262</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>723062</v>
+        <v>725084</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9115153961240516</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8864446808063025</v>
+        <v>0.8891312241943176</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9286894018526819</v>
+        <v>0.9312867843478155</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>671</v>
@@ -6749,19 +6749,19 @@
         <v>731623</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>711170</v>
+        <v>710935</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>750391</v>
+        <v>749821</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.885562562941565</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.860805994742903</v>
+        <v>0.8605224476867014</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9082794426052401</v>
+        <v>0.9075901822967086</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1357</v>
@@ -6770,19 +6770,19 @@
         <v>1441313</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1415155</v>
+        <v>1412943</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1464986</v>
+        <v>1463692</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8981542031657602</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.881853578808981</v>
+        <v>0.8804753220151236</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9129061932116589</v>
+        <v>0.9120998349921896</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>278576</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>245921</v>
+        <v>245371</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>312343</v>
+        <v>313630</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0821895478111971</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07255513091758289</v>
+        <v>0.07239278429040003</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09215201492423787</v>
+        <v>0.09253159885864069</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>252</v>
@@ -6895,19 +6895,19 @@
         <v>274165</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>242407</v>
+        <v>242661</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>307973</v>
+        <v>308375</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0774754943763185</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06850104746771289</v>
+        <v>0.06857280457093129</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08702901771464081</v>
+        <v>0.08714270950486862</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>507</v>
@@ -6916,19 +6916,19 @@
         <v>552742</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>505771</v>
+        <v>507483</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>602662</v>
+        <v>600426</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07978172802176216</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07300206866104694</v>
+        <v>0.07324910829615139</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08698708071809727</v>
+        <v>0.08666443775049996</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3110861</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3077094</v>
+        <v>3075807</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3143516</v>
+        <v>3144066</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9178104521888029</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9078479850757621</v>
+        <v>0.9074684011413594</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9274448690824172</v>
+        <v>0.9276072157095999</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3081</v>
@@ -6966,19 +6966,19 @@
         <v>3264572</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3230764</v>
+        <v>3230362</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3296330</v>
+        <v>3296076</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9225245056236815</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9129709822853592</v>
+        <v>0.9128572904951313</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9314989525322872</v>
+        <v>0.9314271954290687</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6053</v>
@@ -6987,19 +6987,19 @@
         <v>6375433</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6325513</v>
+        <v>6327749</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6422404</v>
+        <v>6420692</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9202182719782378</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9130129192819026</v>
+        <v>0.9133355622494999</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.926997931338953</v>
+        <v>0.9267508917038481</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>42347</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30775</v>
+        <v>30231</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56394</v>
+        <v>55605</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1328133354593488</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09651905578300775</v>
+        <v>0.09481287172413023</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1768681314139903</v>
+        <v>0.1743941559343125</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>86</v>
@@ -7356,19 +7356,19 @@
         <v>49883</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40025</v>
+        <v>41052</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60974</v>
+        <v>60609</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1578258616423069</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1266367694520719</v>
+        <v>0.129885836094935</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1929194983772491</v>
+        <v>0.1917622312484702</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>131</v>
@@ -7377,19 +7377,19 @@
         <v>92229</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>77178</v>
+        <v>77482</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>109034</v>
+        <v>110030</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1452647472482748</v>
+        <v>0.1452647472482747</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1215588797806296</v>
+        <v>0.1220371090588255</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1717331075592163</v>
+        <v>0.1733013547323504</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>276498</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>262451</v>
+        <v>263240</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>288070</v>
+        <v>288614</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8671866645406511</v>
+        <v>0.8671866645406513</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8231318685860095</v>
+        <v>0.8256058440656875</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9034809442169919</v>
+        <v>0.9051871282758699</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>452</v>
@@ -7427,19 +7427,19 @@
         <v>266178</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>255087</v>
+        <v>255452</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>276036</v>
+        <v>275009</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8421741383576931</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.807080501622751</v>
+        <v>0.8082377687515298</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8733632305479281</v>
+        <v>0.8701141639050651</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>738</v>
@@ -7448,19 +7448,19 @@
         <v>542677</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>525872</v>
+        <v>524876</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>557728</v>
+        <v>557424</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8547352527517252</v>
+        <v>0.8547352527517255</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8282668924407837</v>
+        <v>0.8266986452676498</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8784411202193704</v>
+        <v>0.8779628909411745</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>54170</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40634</v>
+        <v>38721</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72245</v>
+        <v>72974</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1020834244794408</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0765737725170761</v>
+        <v>0.07296873501131905</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1361457698179689</v>
+        <v>0.1375196813405716</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>63</v>
@@ -7573,19 +7573,19 @@
         <v>46773</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36119</v>
+        <v>36827</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59282</v>
+        <v>59452</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08558725712803462</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06609251581162963</v>
+        <v>0.06738710819319284</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1084772751618957</v>
+        <v>0.1087887177599811</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>104</v>
@@ -7594,19 +7594,19 @@
         <v>100943</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>81934</v>
+        <v>81816</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>121140</v>
+        <v>124354</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0937139916543156</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07606664028454505</v>
+        <v>0.07595669988918459</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1124642211485265</v>
+        <v>0.1154485084161478</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>476477</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>458402</v>
+        <v>457673</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>490013</v>
+        <v>491926</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8979165755205591</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8638542301820312</v>
+        <v>0.862480318659428</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.923426227482924</v>
+        <v>0.9270312649886793</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>654</v>
@@ -7644,19 +7644,19 @@
         <v>499721</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>487212</v>
+        <v>487042</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>510375</v>
+        <v>509667</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9144127428719654</v>
+        <v>0.9144127428719653</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8915227248381046</v>
+        <v>0.8912112822400188</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9339074841883714</v>
+        <v>0.9326128918068071</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>995</v>
@@ -7665,19 +7665,19 @@
         <v>976198</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>956001</v>
+        <v>952787</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>995207</v>
+        <v>995325</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9062860083456845</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8875357788514736</v>
+        <v>0.8845514915838525</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9239333597154553</v>
+        <v>0.9240433001108154</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>30797</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21235</v>
+        <v>21720</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42179</v>
+        <v>42609</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09746159381657556</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06720186906274003</v>
+        <v>0.06873703674750997</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.13348016458166</v>
+        <v>0.1348400438320071</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -7790,19 +7790,19 @@
         <v>33181</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25551</v>
+        <v>25049</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44074</v>
+        <v>43772</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09310466684564053</v>
+        <v>0.09310466684564056</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07169490554168492</v>
+        <v>0.07028849905424372</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.123671696065819</v>
+        <v>0.1228243841577566</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>86</v>
@@ -7811,19 +7811,19 @@
         <v>63978</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50521</v>
+        <v>51720</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78902</v>
+        <v>78646</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09515227534446638</v>
+        <v>0.09515227534446635</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07513825385932291</v>
+        <v>0.07692199357369385</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1173477372462181</v>
+        <v>0.116967260662704</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>285196</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>273814</v>
+        <v>273384</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>294758</v>
+        <v>294273</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9025384061834245</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8665198354183401</v>
+        <v>0.8651599561679928</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9327981309372597</v>
+        <v>0.93126296325249</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>486</v>
@@ -7861,19 +7861,19 @@
         <v>323200</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>312307</v>
+        <v>312609</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>330830</v>
+        <v>331332</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9068953331543596</v>
+        <v>0.9068953331543594</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8763283039341809</v>
+        <v>0.8771756158422431</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.928305094458315</v>
+        <v>0.9297115009457564</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>810</v>
@@ -7882,19 +7882,19 @@
         <v>608397</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>593473</v>
+        <v>593729</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>621854</v>
+        <v>620655</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9048477246555338</v>
+        <v>0.9048477246555336</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8826522627537817</v>
+        <v>0.8830327393372958</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.924861746140677</v>
+        <v>0.9230780064263062</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>70282</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52227</v>
+        <v>52788</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90555</v>
+        <v>91966</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1883514223446852</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1399630932148189</v>
+        <v>0.1414682435178732</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2426798995306627</v>
+        <v>0.2464616435080732</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>78</v>
@@ -8007,19 +8007,19 @@
         <v>53588</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42473</v>
+        <v>43092</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67512</v>
+        <v>68758</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1269981304971557</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1006552783522993</v>
+        <v>0.1021232776848812</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1599964594077912</v>
+        <v>0.1629480204958573</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>135</v>
@@ -8028,19 +8028,19 @@
         <v>123871</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>104919</v>
+        <v>103361</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>149847</v>
+        <v>148315</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1557913602314465</v>
+        <v>0.1557913602314464</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1319554391639515</v>
+        <v>0.1299967585580117</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1884617807878759</v>
+        <v>0.1865350383898235</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>302863</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>282590</v>
+        <v>281179</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>320918</v>
+        <v>320357</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.811648577655315</v>
+        <v>0.8116485776553147</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7573201004693376</v>
+        <v>0.7535383564919266</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8600369067851812</v>
+        <v>0.8585317564821268</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>521</v>
@@ -8078,19 +8078,19 @@
         <v>368373</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>354449</v>
+        <v>353203</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>379488</v>
+        <v>378869</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8730018695028443</v>
+        <v>0.8730018695028444</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8400035405922086</v>
+        <v>0.8370519795041423</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8993447216477006</v>
+        <v>0.8978767223151187</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>756</v>
@@ -8099,19 +8099,19 @@
         <v>671236</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>645260</v>
+        <v>646792</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>690188</v>
+        <v>691746</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8442086397685536</v>
+        <v>0.8442086397685534</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8115382192121243</v>
+        <v>0.8134649616101765</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8680445608360486</v>
+        <v>0.8700032414419885</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>20163</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13989</v>
+        <v>13972</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29048</v>
+        <v>28701</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09803946306194099</v>
+        <v>0.09803946306194097</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06801996637804243</v>
+        <v>0.06793445141196042</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1412401072587255</v>
+        <v>0.1395542543176744</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>49</v>
@@ -8224,19 +8224,19 @@
         <v>21478</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16096</v>
+        <v>16168</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28294</v>
+        <v>27376</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.09382474193621416</v>
+        <v>0.09382474193621418</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07031333038386681</v>
+        <v>0.07062602603824794</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1235972236027012</v>
+        <v>0.1195872228742936</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>79</v>
@@ -8245,19 +8245,19 @@
         <v>41641</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33350</v>
+        <v>33537</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>51387</v>
+        <v>51555</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09581934553162734</v>
+        <v>0.09581934553162737</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07674079677683314</v>
+        <v>0.07717046535780614</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.118245214897193</v>
+        <v>0.118630750869092</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>185502</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>176617</v>
+        <v>176964</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>191676</v>
+        <v>191693</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.901960536938059</v>
+        <v>0.9019605369380591</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8587598927412744</v>
+        <v>0.8604457456823258</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9319800336219577</v>
+        <v>0.9320655485880395</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>446</v>
@@ -8295,19 +8295,19 @@
         <v>207440</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>200624</v>
+        <v>201542</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>212822</v>
+        <v>212750</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9061752580637857</v>
+        <v>0.906175258063786</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8764027763972992</v>
+        <v>0.8804127771257066</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9296866696161332</v>
+        <v>0.929373973961752</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>695</v>
@@ -8316,19 +8316,19 @@
         <v>392941</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>383195</v>
+        <v>383027</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>401232</v>
+        <v>401045</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9041806544683725</v>
+        <v>0.9041806544683727</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8817547851028068</v>
+        <v>0.8813692491309074</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9232592032231666</v>
+        <v>0.922829534642194</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>25836</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18409</v>
+        <v>18242</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35328</v>
+        <v>35071</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.09543873636105017</v>
+        <v>0.09543873636105019</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06800476282484062</v>
+        <v>0.06738669213732844</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1305018247742896</v>
+        <v>0.1295524886099403</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>44</v>
@@ -8441,19 +8441,19 @@
         <v>27377</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20068</v>
+        <v>19947</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36167</v>
+        <v>35706</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1037978372299667</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07608855701344489</v>
+        <v>0.07562678478860849</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1371251587957827</v>
+        <v>0.1353799730275288</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>80</v>
@@ -8462,19 +8462,19 @@
         <v>53213</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>43208</v>
+        <v>43382</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>64718</v>
+        <v>65967</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09956388426937386</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08084470057739079</v>
+        <v>0.08117067986459746</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1210904898149924</v>
+        <v>0.1234276322728013</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>244871</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>235379</v>
+        <v>235636</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>252298</v>
+        <v>252465</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9045612636389498</v>
+        <v>0.90456126363895</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8694981752257104</v>
+        <v>0.8704475113900597</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9319952371751595</v>
+        <v>0.9326133078626718</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>416</v>
@@ -8512,19 +8512,19 @@
         <v>236373</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>227583</v>
+        <v>228044</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>243682</v>
+        <v>243803</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8962021627700334</v>
+        <v>0.8962021627700333</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8628748412042173</v>
+        <v>0.8646200269724713</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9239114429865549</v>
+        <v>0.9243732152113919</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>751</v>
@@ -8533,19 +8533,19 @@
         <v>481244</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>469739</v>
+        <v>468490</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>491249</v>
+        <v>491075</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9004361157306261</v>
+        <v>0.9004361157306262</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8789095101850077</v>
+        <v>0.8765723677271988</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9191552994226092</v>
+        <v>0.9188293201354026</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>170197</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>142569</v>
+        <v>146561</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>196204</v>
+        <v>198901</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2364879250785966</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1980986751444945</v>
+        <v>0.2036449269789454</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2726241185021858</v>
+        <v>0.2763708596529361</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>229</v>
@@ -8658,19 +8658,19 @@
         <v>184703</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>163127</v>
+        <v>163694</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>210151</v>
+        <v>207347</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2395655190048824</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2115809594480964</v>
+        <v>0.2123164008375397</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2725728562952949</v>
+        <v>0.2689353492274955</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>368</v>
@@ -8679,19 +8679,19 @@
         <v>354900</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>320887</v>
+        <v>324890</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>389425</v>
+        <v>393773</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2380796818008536</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.215262445047247</v>
+        <v>0.2179477727641999</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2612402576415712</v>
+        <v>0.2641573041026789</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>549490</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>523483</v>
+        <v>520786</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>577118</v>
+        <v>573126</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7635120749214036</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7273758814978143</v>
+        <v>0.7236291403470638</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8019013248555057</v>
+        <v>0.7963550730210546</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>730</v>
@@ -8729,19 +8729,19 @@
         <v>586288</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>560840</v>
+        <v>563644</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>607864</v>
+        <v>607297</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7604344809951175</v>
+        <v>0.7604344809951177</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7274271437047052</v>
+        <v>0.7310646507725044</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7884190405519036</v>
+        <v>0.7876835991624603</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1190</v>
@@ -8750,19 +8750,19 @@
         <v>1135778</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1101253</v>
+        <v>1096905</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1169791</v>
+        <v>1165788</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7619203181991465</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7387597423584289</v>
+        <v>0.7358426958973212</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7847375549527523</v>
+        <v>0.7820522272358001</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>62316</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>46766</v>
+        <v>48208</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>78069</v>
+        <v>79392</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07808358563903146</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05859933265853115</v>
+        <v>0.06040509041814577</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09782188409611216</v>
+        <v>0.09947995167462745</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>98</v>
@@ -8875,19 +8875,19 @@
         <v>76845</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>62414</v>
+        <v>61296</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>93039</v>
+        <v>91447</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.09251587855242661</v>
+        <v>0.09251587855242663</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07514302849761056</v>
+        <v>0.07379619271675139</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1120128745748009</v>
+        <v>0.1100961703426622</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>159</v>
@@ -8896,19 +8896,19 @@
         <v>139161</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>119741</v>
+        <v>117758</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>164046</v>
+        <v>162113</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0854438920393463</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07352009556520238</v>
+        <v>0.07230288954056104</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1007231974887868</v>
+        <v>0.09953639140901006</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>735756</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>720003</v>
+        <v>718680</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>751306</v>
+        <v>749864</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9219164143609684</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9021781159038877</v>
+        <v>0.9005200483253725</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.941400667341469</v>
+        <v>0.9395949095818542</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>963</v>
@@ -8946,19 +8946,19 @@
         <v>753764</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>737570</v>
+        <v>739162</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>768195</v>
+        <v>769313</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9074841214475733</v>
+        <v>0.9074841214475734</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8879871254251993</v>
+        <v>0.8899038296573375</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9248569715023894</v>
+        <v>0.9262038072832482</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1664</v>
@@ -8967,19 +8967,19 @@
         <v>1489520</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1464635</v>
+        <v>1466568</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1508940</v>
+        <v>1510923</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9145561079606537</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8992768025112133</v>
+        <v>0.9004636085909901</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9264799044347977</v>
+        <v>0.927697110459439</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>476110</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>432468</v>
+        <v>430303</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>520416</v>
+        <v>526097</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.134769816351685</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1224163031950618</v>
+        <v>0.121803620560216</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1473112729309723</v>
+        <v>0.1489194647751225</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>697</v>
@@ -9092,19 +9092,19 @@
         <v>493827</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>461433</v>
+        <v>458795</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>532868</v>
+        <v>532434</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.1322101441228371</v>
+        <v>0.1322101441228372</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1235373991004885</v>
+        <v>0.122831228840384</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1426623661650209</v>
+        <v>0.1425461444355737</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1142</v>
@@ -9113,19 +9113,19 @@
         <v>969937</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>914361</v>
+        <v>916090</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1031999</v>
+        <v>1035740</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1334543382623585</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1258076378444265</v>
+        <v>0.1260455645709052</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1419935557891918</v>
+        <v>0.1425082984409274</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3056652</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3012346</v>
+        <v>3006665</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3100294</v>
+        <v>3102459</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8652301836483149</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8526887270690275</v>
+        <v>0.8510805352248775</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.877583696804938</v>
+        <v>0.8781963794397845</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4668</v>
@@ -9163,19 +9163,19 @@
         <v>3241339</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3202298</v>
+        <v>3202732</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3273733</v>
+        <v>3276371</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8677898558771628</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8573376338349792</v>
+        <v>0.8574538555644263</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8764626008995116</v>
+        <v>0.877168771159616</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7599</v>
@@ -9184,19 +9184,19 @@
         <v>6297991</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6235929</v>
+        <v>6232188</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6353567</v>
+        <v>6351838</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8665456617376416</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8580064442108081</v>
+        <v>0.8574917015590726</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8741923621555734</v>
+        <v>0.8739544354290948</v>
       </c>
     </row>
     <row r="30">
